--- a/biology/Médecine/Tamara_Isserlis/Tamara_Isserlis.xlsx
+++ b/biology/Médecine/Tamara_Isserlis/Tamara_Isserlis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tamara Isserlis (ou Tamara Denise[1] Isserlis), née le 17 avril 1918 à Saint-Cloud (Hauts-de-Seine) et morte en novembre 1942 à Auschwitz, est une jeune française juive, arrêtée et déportée à Auschwitz.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tamara Isserlis (ou Tamara Denise Isserlis), née le 17 avril 1918 à Saint-Cloud (Hauts-de-Seine) et morte en novembre 1942 à Auschwitz, est une jeune française juive, arrêtée et déportée à Auschwitz.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tamara Isserlis est née le 17 avril 1918 à Saint-Cloud (Hauts-de-Seine). Ses parents sont des Juifs russes émigrés en France au début du siècle et naturalisés français[2]. Sa mère est médecin. Son père travaille à l'ORT[3].
-En 1940, la famille Isserlis se réfugie à Nice où elle survit à la guerre. Externe en médecine, Tamara Isserlis reste à Paris[3]. Elle est arrêtée le 8 juin 1942 par un officier allemand pour avoir porté le drapeau français sous l'étoile jaune[4].  Malgré l'intervention de son directeur de thèse Robert Debré[5], après avoir été internée à la caserne des Tourelles, elle est déportée par le Convoi n°3,  le premier convoi de déportation incluant des femmes, le 22 juin 1942 vers Auschwitz[6], où elle meurt[7].
-Elle est évoquée en quelques lignes dans le roman de Patrick Modiano, Dora Bruder comme possible camarade d'infortune de cette dernière[8] (elles n'ont pas été déportées par le même convoi). À ce titre, elle est citée dans une thèse de doctorat soutenue le 31 janvier 2020 par Élise Wiener à l'École des hautes études en sciences sociales[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tamara Isserlis est née le 17 avril 1918 à Saint-Cloud (Hauts-de-Seine). Ses parents sont des Juifs russes émigrés en France au début du siècle et naturalisés français. Sa mère est médecin. Son père travaille à l'ORT.
+En 1940, la famille Isserlis se réfugie à Nice où elle survit à la guerre. Externe en médecine, Tamara Isserlis reste à Paris. Elle est arrêtée le 8 juin 1942 par un officier allemand pour avoir porté le drapeau français sous l'étoile jaune.  Malgré l'intervention de son directeur de thèse Robert Debré, après avoir été internée à la caserne des Tourelles, elle est déportée par le Convoi n°3,  le premier convoi de déportation incluant des femmes, le 22 juin 1942 vers Auschwitz, où elle meurt.
+Elle est évoquée en quelques lignes dans le roman de Patrick Modiano, Dora Bruder comme possible camarade d'infortune de cette dernière (elles n'ont pas été déportées par le même convoi). À ce titre, elle est citée dans une thèse de doctorat soutenue le 31 janvier 2020 par Élise Wiener à l'École des hautes études en sciences sociales.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Tamara Denise Isserlis, Des formes douloureuses de l'ictère catarrhal chez l'enfant, Paris, Foulon, 1942, 59 p. [10]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tamara Denise Isserlis, Des formes douloureuses de l'ictère catarrhal chez l'enfant, Paris, Foulon, 1942, 59 p. </t>
         </is>
       </c>
     </row>
